--- a/Code/Results/Cases/Case_0_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_129/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1616642655407503</v>
+        <v>0.05052846209076733</v>
       </c>
       <c r="D2">
-        <v>0.02970708391190158</v>
+        <v>0.008943546438445082</v>
       </c>
       <c r="E2">
-        <v>1.594460465120505</v>
+        <v>0.4304237066138796</v>
       </c>
       <c r="F2">
-        <v>2.584235742140578</v>
+        <v>1.038957906139956</v>
       </c>
       <c r="G2">
-        <v>0.0007056320110280018</v>
+        <v>0.002342237695844014</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.006164563466029</v>
+        <v>3.581084263747925</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1386272236737085</v>
+        <v>0.04476206481498934</v>
       </c>
       <c r="D3">
-        <v>0.02511701949651624</v>
+        <v>0.007995848526700655</v>
       </c>
       <c r="E3">
-        <v>1.353986092680429</v>
+        <v>0.3748685171765942</v>
       </c>
       <c r="F3">
-        <v>2.219743332004597</v>
+        <v>0.9555018548654175</v>
       </c>
       <c r="G3">
-        <v>0.0007153513487549196</v>
+        <v>0.002348116949748624</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.73154917412495</v>
+        <v>3.290152896055872</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1248020242021539</v>
+        <v>0.04124261813029761</v>
       </c>
       <c r="D4">
-        <v>0.02242287203784343</v>
+        <v>0.00742011289122857</v>
       </c>
       <c r="E4">
-        <v>1.211606285751643</v>
+        <v>0.3409164150049975</v>
       </c>
       <c r="F4">
-        <v>2.002049939305664</v>
+        <v>0.904935892906451</v>
       </c>
       <c r="G4">
-        <v>0.000721426842633783</v>
+        <v>0.002351912108086821</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.970712635479231</v>
+        <v>3.113860341885584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1192357591112483</v>
+        <v>0.03981353979432356</v>
       </c>
       <c r="D5">
-        <v>0.02135083120819559</v>
+        <v>0.007186965552236302</v>
       </c>
       <c r="E5">
-        <v>1.154679014022534</v>
+        <v>0.3271169890139163</v>
       </c>
       <c r="F5">
-        <v>1.914638902823384</v>
+        <v>0.8844966276862323</v>
       </c>
       <c r="G5">
-        <v>0.0007239332906220976</v>
+        <v>0.002353505441242354</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.665300722229176</v>
+        <v>3.042596276585186</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.118315223001801</v>
+        <v>0.0395765463820652</v>
       </c>
       <c r="D6">
-        <v>0.02117423796289231</v>
+        <v>0.007148338117023201</v>
       </c>
       <c r="E6">
-        <v>1.145286168558954</v>
+        <v>0.3248276933735923</v>
       </c>
       <c r="F6">
-        <v>1.90019659820905</v>
+        <v>0.8811126802678615</v>
       </c>
       <c r="G6">
-        <v>0.0007243514300585231</v>
+        <v>0.002353772843926084</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.614844552026568</v>
+        <v>3.030797410986111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1247266976468069</v>
+        <v>0.04122332458312883</v>
       </c>
       <c r="D7">
-        <v>0.02240831601767468</v>
+        <v>0.007416962736066068</v>
       </c>
       <c r="E7">
-        <v>1.210834399438355</v>
+        <v>0.340730168809614</v>
       </c>
       <c r="F7">
-        <v>2.000866106462169</v>
+        <v>0.9046595708997387</v>
       </c>
       <c r="G7">
-        <v>0.0007214605170242638</v>
+        <v>0.002351933406695056</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.966576015246801</v>
+        <v>3.112896930884801</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1536465899732207</v>
+        <v>0.04853570168536692</v>
       </c>
       <c r="D8">
-        <v>0.02809516158028202</v>
+        <v>0.008615455172950703</v>
       </c>
       <c r="E8">
-        <v>1.510299793044851</v>
+        <v>0.4112330468379781</v>
       </c>
       <c r="F8">
-        <v>2.457140665880402</v>
+        <v>1.010039843139111</v>
       </c>
       <c r="G8">
-        <v>0.0007089631369982925</v>
+        <v>0.002344226522264665</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.561615141875677</v>
+        <v>3.480278027715428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2135628589112457</v>
+        <v>0.06305247523306434</v>
       </c>
       <c r="D9">
-        <v>0.04052597297114602</v>
+        <v>0.01101820639376427</v>
       </c>
       <c r="E9">
-        <v>2.152047299930004</v>
+        <v>0.5509232592974627</v>
       </c>
       <c r="F9">
-        <v>3.412755547217103</v>
+        <v>1.222218960642778</v>
       </c>
       <c r="G9">
-        <v>0.0006851240480443887</v>
+        <v>0.002330574835433471</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.90691495048605</v>
+        <v>4.219864929822563</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2606497903195191</v>
+        <v>0.07384021095187165</v>
       </c>
       <c r="D10">
-        <v>0.05095437926073743</v>
+        <v>0.01282084040147424</v>
       </c>
       <c r="E10">
-        <v>2.679009966977972</v>
+        <v>0.6546786155740421</v>
       </c>
       <c r="F10">
-        <v>4.172877851327911</v>
+        <v>1.381719871913816</v>
       </c>
       <c r="G10">
-        <v>0.0006677005182122997</v>
+        <v>0.00232142388172245</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.57262409772085</v>
+        <v>4.775787231787604</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.283052993017435</v>
+        <v>0.07877756143632553</v>
       </c>
       <c r="D11">
-        <v>0.05613763538087824</v>
+        <v>0.01365020014087293</v>
       </c>
       <c r="E11">
-        <v>2.937608412518983</v>
+        <v>0.7021797081819585</v>
       </c>
       <c r="F11">
-        <v>4.537336501337876</v>
+        <v>1.455119823127035</v>
       </c>
       <c r="G11">
-        <v>0.0006597017081723682</v>
+        <v>0.002317449146469602</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.8523493020632</v>
+        <v>5.031610505972708</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.29171143978553</v>
+        <v>0.0806517566815188</v>
       </c>
       <c r="D12">
-        <v>0.05818144211184517</v>
+        <v>0.0139656954419678</v>
       </c>
       <c r="E12">
-        <v>3.039024236026037</v>
+        <v>0.7202150718743354</v>
       </c>
       <c r="F12">
-        <v>4.678687010994764</v>
+        <v>1.483039761349005</v>
       </c>
       <c r="G12">
-        <v>0.0006566522800491245</v>
+        <v>0.002315970862932314</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.3489620479354</v>
+        <v>5.12892072231125</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2898382969727891</v>
+        <v>0.08024791027854405</v>
       </c>
       <c r="D13">
-        <v>0.05773732896592776</v>
+        <v>0.01389768257124757</v>
       </c>
       <c r="E13">
-        <v>3.017012496312617</v>
+        <v>0.7163286418724084</v>
       </c>
       <c r="F13">
-        <v>4.648084086796075</v>
+        <v>1.477021082648264</v>
       </c>
       <c r="G13">
-        <v>0.0006573101250022563</v>
+        <v>0.002316288045592597</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.24142962317205</v>
+        <v>5.107943632011938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2837616057532131</v>
+        <v>0.07893166058768486</v>
       </c>
       <c r="D14">
-        <v>0.05630403645335491</v>
+        <v>0.01367612683552721</v>
       </c>
       <c r="E14">
-        <v>2.945876757517496</v>
+        <v>0.7036625070413862</v>
       </c>
       <c r="F14">
-        <v>4.54889429309452</v>
+        <v>1.45741428624936</v>
       </c>
       <c r="G14">
-        <v>0.0006594513059852344</v>
+        <v>0.002317326989741375</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.89294966281466</v>
+        <v>5.039607467092196</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2800633479053403</v>
+        <v>0.07812601590281076</v>
       </c>
       <c r="D15">
-        <v>0.05543726995892939</v>
+        <v>0.01354060718945505</v>
       </c>
       <c r="E15">
-        <v>2.902785404030922</v>
+        <v>0.6959104778898535</v>
       </c>
       <c r="F15">
-        <v>4.488594414523362</v>
+        <v>1.445420948117032</v>
       </c>
       <c r="G15">
-        <v>0.0006607598387343705</v>
+        <v>0.002317966865919552</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.68113938190868</v>
+        <v>4.997806726364843</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2592081678898808</v>
+        <v>0.07351816499674158</v>
       </c>
       <c r="D16">
-        <v>0.05062589802950157</v>
+        <v>0.01276683546616653</v>
       </c>
       <c r="E16">
-        <v>2.662551304775292</v>
+        <v>0.6515807523204842</v>
       </c>
       <c r="F16">
-        <v>4.149487771741576</v>
+        <v>1.376940287943881</v>
       </c>
       <c r="G16">
-        <v>0.0006682209953002224</v>
+        <v>0.002321687408983693</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.49053034799169</v>
+        <v>4.759128753694711</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.246687601893214</v>
+        <v>0.07069922541678864</v>
       </c>
       <c r="D17">
-        <v>0.04779804100944318</v>
+        <v>0.01229460716505315</v>
       </c>
       <c r="E17">
-        <v>2.520498353027747</v>
+        <v>0.6244663244896742</v>
       </c>
       <c r="F17">
-        <v>3.946658509122813</v>
+        <v>1.335148049666202</v>
       </c>
       <c r="G17">
-        <v>0.0006727731540179726</v>
+        <v>0.002324017883126265</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.77882514874392</v>
+        <v>4.613468198980513</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.239576266051742</v>
+        <v>0.06908065205573166</v>
       </c>
       <c r="D18">
-        <v>0.0462115764454154</v>
+        <v>0.01202386667504385</v>
       </c>
       <c r="E18">
-        <v>2.440513456730145</v>
+        <v>0.6088990123417233</v>
       </c>
       <c r="F18">
-        <v>3.831707600234296</v>
+        <v>1.311189294299879</v>
       </c>
       <c r="G18">
-        <v>0.0006753853046662829</v>
+        <v>0.002325376024032553</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.37561585716662</v>
+        <v>4.52996316860856</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2371830704591673</v>
+        <v>0.06853310624022413</v>
       </c>
       <c r="D19">
-        <v>0.04568083651074772</v>
+        <v>0.01193234569974777</v>
       </c>
       <c r="E19">
-        <v>2.413707132467209</v>
+        <v>0.6036329010448469</v>
       </c>
       <c r="F19">
-        <v>3.793063586992645</v>
+        <v>1.303090729238818</v>
       </c>
       <c r="G19">
-        <v>0.0006762689477300842</v>
+        <v>0.002325838914997291</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.24008820376775</v>
+        <v>4.50173662271493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2480108866010795</v>
+        <v>0.07099901434227718</v>
       </c>
       <c r="D20">
-        <v>0.04809481280672401</v>
+        <v>0.01234478568321151</v>
       </c>
       <c r="E20">
-        <v>2.535437158997937</v>
+        <v>0.6273497534900372</v>
       </c>
       <c r="F20">
-        <v>3.968068688079256</v>
+        <v>1.339588697244295</v>
       </c>
       <c r="G20">
-        <v>0.0006722892681296179</v>
+        <v>0.002323767968160808</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.85393606172335</v>
+        <v>4.628945444994827</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2855414275937136</v>
+        <v>0.07931815036987189</v>
       </c>
       <c r="D21">
-        <v>0.05672266280647165</v>
+        <v>0.01374116343710341</v>
       </c>
       <c r="E21">
-        <v>2.96666902232937</v>
+        <v>0.7073815280193969</v>
       </c>
       <c r="F21">
-        <v>4.577932161166274</v>
+        <v>1.463169854790664</v>
       </c>
       <c r="G21">
-        <v>0.0006588230364138824</v>
+        <v>0.002317021099142336</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.99495905502511</v>
+        <v>5.059667523342227</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3111104170654215</v>
+        <v>0.08478168316915458</v>
       </c>
       <c r="D22">
-        <v>0.06284604745621181</v>
+        <v>0.014662184576828</v>
       </c>
       <c r="E22">
-        <v>3.26938824565957</v>
+        <v>0.7599671772600232</v>
       </c>
       <c r="F22">
-        <v>4.996397152421025</v>
+        <v>1.544667555240096</v>
       </c>
       <c r="G22">
-        <v>0.0006498962312940159</v>
+        <v>0.002312768120793171</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.46579069682002</v>
+        <v>5.343714382450344</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.297355382037793</v>
+        <v>0.08186319461671587</v>
       </c>
       <c r="D23">
-        <v>0.05952622007075092</v>
+        <v>0.01416981774027448</v>
       </c>
       <c r="E23">
-        <v>3.105590736284114</v>
+        <v>0.7318741492869805</v>
       </c>
       <c r="F23">
-        <v>4.770975434374179</v>
+        <v>1.501102581173711</v>
       </c>
       <c r="G23">
-        <v>0.0006546761533564858</v>
+        <v>0.00231502375701132</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.67329150582907</v>
+        <v>5.191875664919166</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2474123613200163</v>
+        <v>0.07086347332972309</v>
       </c>
       <c r="D24">
-        <v>0.04796052111667137</v>
+        <v>0.0123220976466385</v>
       </c>
       <c r="E24">
-        <v>2.528678137221561</v>
+        <v>0.6260460897340892</v>
       </c>
       <c r="F24">
-        <v>3.958384027894112</v>
+        <v>1.337580868464897</v>
       </c>
       <c r="G24">
-        <v>0.0006725080476607248</v>
+        <v>0.002323880897583677</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.8199600257671</v>
+        <v>4.621947444414047</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.196907434664908</v>
+        <v>0.0591048735734887</v>
       </c>
       <c r="D25">
-        <v>0.03697971028761771</v>
+        <v>0.01036203391903001</v>
       </c>
       <c r="E25">
-        <v>1.970599357784877</v>
+        <v>0.5129541931938206</v>
       </c>
       <c r="F25">
-        <v>3.145790019094449</v>
+        <v>1.164202196230377</v>
       </c>
       <c r="G25">
-        <v>0.00069153073376722</v>
+        <v>0.002334112758844178</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.97170081795048</v>
+        <v>4.017647422946709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_129/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05052846209076733</v>
+        <v>0.1616642655407219</v>
       </c>
       <c r="D2">
-        <v>0.008943546438445082</v>
+        <v>0.02970708391188737</v>
       </c>
       <c r="E2">
-        <v>0.4304237066138796</v>
+        <v>1.594460465120562</v>
       </c>
       <c r="F2">
-        <v>1.038957906139956</v>
+        <v>2.584235742140578</v>
       </c>
       <c r="G2">
-        <v>0.002342237695844014</v>
+        <v>0.0007056320110262076</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.581084263747925</v>
+        <v>9.006164563466029</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04476206481498934</v>
+        <v>0.1386272236739217</v>
       </c>
       <c r="D3">
-        <v>0.007995848526700655</v>
+        <v>0.02511701949629241</v>
       </c>
       <c r="E3">
-        <v>0.3748685171765942</v>
+        <v>1.353986092680415</v>
       </c>
       <c r="F3">
-        <v>0.9555018548654175</v>
+        <v>2.219743332004612</v>
       </c>
       <c r="G3">
-        <v>0.002348116949748624</v>
+        <v>0.0007153513487539204</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.290152896055872</v>
+        <v>7.731549174125007</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04124261813029761</v>
+        <v>0.1248020242021397</v>
       </c>
       <c r="D4">
-        <v>0.00742011289122857</v>
+        <v>0.02242287203793936</v>
       </c>
       <c r="E4">
-        <v>0.3409164150049975</v>
+        <v>1.211606285751657</v>
       </c>
       <c r="F4">
-        <v>0.904935892906451</v>
+        <v>2.002049939305678</v>
       </c>
       <c r="G4">
-        <v>0.002351912108086821</v>
+        <v>0.0007214268425836821</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.113860341885584</v>
+        <v>6.970712635479231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03981353979432356</v>
+        <v>0.1192357591110351</v>
       </c>
       <c r="D5">
-        <v>0.007186965552236302</v>
+        <v>0.02135083120818493</v>
       </c>
       <c r="E5">
-        <v>0.3271169890139163</v>
+        <v>1.15467901402252</v>
       </c>
       <c r="F5">
-        <v>0.8844966276862323</v>
+        <v>1.914638902823356</v>
       </c>
       <c r="G5">
-        <v>0.002353505441242354</v>
+        <v>0.0007239332906721866</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.042596276585186</v>
+        <v>6.665300722229176</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0395765463820652</v>
+        <v>0.1183152230020283</v>
       </c>
       <c r="D6">
-        <v>0.007148338117023201</v>
+        <v>0.02117423796287454</v>
       </c>
       <c r="E6">
-        <v>0.3248276933735923</v>
+        <v>1.145286168558954</v>
       </c>
       <c r="F6">
-        <v>0.8811126802678615</v>
+        <v>1.900196598209078</v>
       </c>
       <c r="G6">
-        <v>0.002353772843926084</v>
+        <v>0.0007243514301074359</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.030797410986111</v>
+        <v>6.614844552026625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04122332458312883</v>
+        <v>0.1247266976466079</v>
       </c>
       <c r="D7">
-        <v>0.007416962736066068</v>
+        <v>0.0224083160177706</v>
       </c>
       <c r="E7">
-        <v>0.340730168809614</v>
+        <v>1.210834399438369</v>
       </c>
       <c r="F7">
-        <v>0.9046595708997387</v>
+        <v>2.000866106462155</v>
       </c>
       <c r="G7">
-        <v>0.002351933406695056</v>
+        <v>0.0007214605170753513</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.112896930884801</v>
+        <v>6.966576015246801</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04853570168536692</v>
+        <v>0.1536465899730075</v>
       </c>
       <c r="D8">
-        <v>0.008615455172950703</v>
+        <v>0.02809516158027492</v>
       </c>
       <c r="E8">
-        <v>0.4112330468379781</v>
+        <v>1.510299793044837</v>
       </c>
       <c r="F8">
-        <v>1.010039843139111</v>
+        <v>2.457140665880402</v>
       </c>
       <c r="G8">
-        <v>0.002344226522264665</v>
+        <v>0.0007089631371617366</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.480278027715428</v>
+        <v>8.561615141875677</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06305247523306434</v>
+        <v>0.2135628589115299</v>
       </c>
       <c r="D9">
-        <v>0.01101820639376427</v>
+        <v>0.04052597297091154</v>
       </c>
       <c r="E9">
-        <v>0.5509232592974627</v>
+        <v>2.152047299930018</v>
       </c>
       <c r="F9">
-        <v>1.222218960642778</v>
+        <v>3.412755547217131</v>
       </c>
       <c r="G9">
-        <v>0.002330574835433471</v>
+        <v>0.0006851240480442117</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.219864929822563</v>
+        <v>11.90691495048611</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07384021095187165</v>
+        <v>0.2606497903193059</v>
       </c>
       <c r="D10">
-        <v>0.01282084040147424</v>
+        <v>0.05095437926039637</v>
       </c>
       <c r="E10">
-        <v>0.6546786155740421</v>
+        <v>2.679009966978015</v>
       </c>
       <c r="F10">
-        <v>1.381719871913816</v>
+        <v>4.172877851327939</v>
       </c>
       <c r="G10">
-        <v>0.00232142388172245</v>
+        <v>0.0006677005181589798</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.775787231787604</v>
+        <v>14.57262409772096</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07877756143632553</v>
+        <v>0.2830529930174777</v>
       </c>
       <c r="D11">
-        <v>0.01365020014087293</v>
+        <v>0.05613763538080718</v>
       </c>
       <c r="E11">
-        <v>0.7021797081819585</v>
+        <v>2.937608412518998</v>
       </c>
       <c r="F11">
-        <v>1.455119823127035</v>
+        <v>4.537336501337876</v>
       </c>
       <c r="G11">
-        <v>0.002317449146469602</v>
+        <v>0.0006597017081035344</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.031610505972708</v>
+        <v>15.8523493020632</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0806517566815188</v>
+        <v>0.2917114397853311</v>
       </c>
       <c r="D12">
-        <v>0.0139656954419678</v>
+        <v>0.05818144211191623</v>
       </c>
       <c r="E12">
-        <v>0.7202150718743354</v>
+        <v>3.039024236026009</v>
       </c>
       <c r="F12">
-        <v>1.483039761349005</v>
+        <v>4.678687010994764</v>
       </c>
       <c r="G12">
-        <v>0.002315970862932314</v>
+        <v>0.0006566522800496568</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.12892072231125</v>
+        <v>16.34896204793529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08024791027854405</v>
+        <v>0.2898382969725475</v>
       </c>
       <c r="D13">
-        <v>0.01389768257124757</v>
+        <v>0.05773732896557959</v>
       </c>
       <c r="E13">
-        <v>0.7163286418724084</v>
+        <v>3.017012496312674</v>
       </c>
       <c r="F13">
-        <v>1.477021082648264</v>
+        <v>4.648084086796075</v>
       </c>
       <c r="G13">
-        <v>0.002316288045592597</v>
+        <v>0.0006573101249312002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.107943632011938</v>
+        <v>16.24142962317217</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07893166058768486</v>
+        <v>0.2837616057529715</v>
       </c>
       <c r="D14">
-        <v>0.01367612683552721</v>
+        <v>0.05630403645311333</v>
       </c>
       <c r="E14">
-        <v>0.7036625070413862</v>
+        <v>2.945876757517482</v>
       </c>
       <c r="F14">
-        <v>1.45741428624936</v>
+        <v>4.54889429309452</v>
       </c>
       <c r="G14">
-        <v>0.002317326989741375</v>
+        <v>0.0006594513059846684</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.039607467092196</v>
+        <v>15.89294966281477</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07812601590281076</v>
+        <v>0.2800633479051555</v>
       </c>
       <c r="D15">
-        <v>0.01354060718945505</v>
+        <v>0.05543726995900755</v>
       </c>
       <c r="E15">
-        <v>0.6959104778898535</v>
+        <v>2.902785404030936</v>
       </c>
       <c r="F15">
-        <v>1.445420948117032</v>
+        <v>4.488594414523334</v>
       </c>
       <c r="G15">
-        <v>0.002317966865919552</v>
+        <v>0.0006607598386668174</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.997806726364843</v>
+        <v>15.68113938190857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07351816499674158</v>
+        <v>0.2592081678897955</v>
       </c>
       <c r="D16">
-        <v>0.01276683546616653</v>
+        <v>0.05062589802938788</v>
       </c>
       <c r="E16">
-        <v>0.6515807523204842</v>
+        <v>2.662551304775235</v>
       </c>
       <c r="F16">
-        <v>1.376940287943881</v>
+        <v>4.149487771741576</v>
       </c>
       <c r="G16">
-        <v>0.002321687408983693</v>
+        <v>0.0006682209953526401</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.759128753694711</v>
+        <v>14.49053034799169</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07069922541678864</v>
+        <v>0.2466876018931572</v>
       </c>
       <c r="D17">
-        <v>0.01229460716505315</v>
+        <v>0.04779804100943608</v>
       </c>
       <c r="E17">
-        <v>0.6244663244896742</v>
+        <v>2.520498353027705</v>
       </c>
       <c r="F17">
-        <v>1.335148049666202</v>
+        <v>3.946658509122784</v>
       </c>
       <c r="G17">
-        <v>0.002324017883126265</v>
+        <v>0.0006727731539128084</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.613468198980513</v>
+        <v>13.77882514874392</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06908065205573166</v>
+        <v>0.2395762660518699</v>
       </c>
       <c r="D18">
-        <v>0.01202386667504385</v>
+        <v>0.04621157644542251</v>
       </c>
       <c r="E18">
-        <v>0.6088990123417233</v>
+        <v>2.440513456730159</v>
       </c>
       <c r="F18">
-        <v>1.311189294299879</v>
+        <v>3.831707600234324</v>
       </c>
       <c r="G18">
-        <v>0.002325376024032553</v>
+        <v>0.000675385304666911</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.52996316860856</v>
+        <v>13.37561585716662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06853310624022413</v>
+        <v>0.2371830704592099</v>
       </c>
       <c r="D19">
-        <v>0.01193234569974777</v>
+        <v>0.04568083651061272</v>
       </c>
       <c r="E19">
-        <v>0.6036329010448469</v>
+        <v>2.413707132467195</v>
       </c>
       <c r="F19">
-        <v>1.303090729238818</v>
+        <v>3.793063586992673</v>
       </c>
       <c r="G19">
-        <v>0.002325838914997291</v>
+        <v>0.0006762689477814607</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.50173662271493</v>
+        <v>13.24008820376787</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07099901434227718</v>
+        <v>0.2480108866010937</v>
       </c>
       <c r="D20">
-        <v>0.01234478568321151</v>
+        <v>0.0480948128069727</v>
       </c>
       <c r="E20">
-        <v>0.6273497534900372</v>
+        <v>2.535437158998022</v>
       </c>
       <c r="F20">
-        <v>1.339588697244295</v>
+        <v>3.968068688079285</v>
       </c>
       <c r="G20">
-        <v>0.002323767968160808</v>
+        <v>0.0006722892681165145</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.628945444994827</v>
+        <v>13.85393606172352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07931815036987189</v>
+        <v>0.2855414275942962</v>
       </c>
       <c r="D21">
-        <v>0.01374116343710341</v>
+        <v>0.05672266280645744</v>
       </c>
       <c r="E21">
-        <v>0.7073815280193969</v>
+        <v>2.966669022329398</v>
       </c>
       <c r="F21">
-        <v>1.463169854790664</v>
+        <v>4.577932161166302</v>
       </c>
       <c r="G21">
-        <v>0.002317021099142336</v>
+        <v>0.0006588230363782328</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.059667523342227</v>
+        <v>15.99495905502511</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08478168316915458</v>
+        <v>0.3111104170652936</v>
       </c>
       <c r="D22">
-        <v>0.014662184576828</v>
+        <v>0.06284604745621181</v>
       </c>
       <c r="E22">
-        <v>0.7599671772600232</v>
+        <v>3.269388245659599</v>
       </c>
       <c r="F22">
-        <v>1.544667555240096</v>
+        <v>4.996397152421054</v>
       </c>
       <c r="G22">
-        <v>0.002312768120793171</v>
+        <v>0.0006498962312214631</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.343714382450344</v>
+        <v>17.46579069682002</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08186319461671587</v>
+        <v>0.2973553820374946</v>
       </c>
       <c r="D23">
-        <v>0.01416981774027448</v>
+        <v>0.05952622007095698</v>
       </c>
       <c r="E23">
-        <v>0.7318741492869805</v>
+        <v>3.105590736284128</v>
       </c>
       <c r="F23">
-        <v>1.501102581173711</v>
+        <v>4.770975434374208</v>
       </c>
       <c r="G23">
-        <v>0.00231502375701132</v>
+        <v>0.0006546761533552429</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.191875664919166</v>
+        <v>16.67329150582918</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07086347332972309</v>
+        <v>0.2474123613198032</v>
       </c>
       <c r="D24">
-        <v>0.0123220976466385</v>
+        <v>0.04796052111654348</v>
       </c>
       <c r="E24">
-        <v>0.6260460897340892</v>
+        <v>2.528678137221519</v>
       </c>
       <c r="F24">
-        <v>1.337580868464897</v>
+        <v>3.958384027894084</v>
       </c>
       <c r="G24">
-        <v>0.002323880897583677</v>
+        <v>0.0006725080476605383</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.621947444414047</v>
+        <v>13.81996002576705</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0591048735734887</v>
+        <v>0.1969074346646664</v>
       </c>
       <c r="D25">
-        <v>0.01036203391903001</v>
+        <v>0.03697971028739744</v>
       </c>
       <c r="E25">
-        <v>0.5129541931938206</v>
+        <v>1.970599357784891</v>
       </c>
       <c r="F25">
-        <v>1.164202196230377</v>
+        <v>3.145790019094392</v>
       </c>
       <c r="G25">
-        <v>0.002334112758844178</v>
+        <v>0.000691530733714097</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.017647422946709</v>
+        <v>10.97170081795036</v>
       </c>
     </row>
   </sheetData>
